--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H2">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I2">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J2">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>1719.720794806772</v>
+        <v>1394.84786647325</v>
       </c>
       <c r="R2">
-        <v>15477.48715326095</v>
+        <v>12553.63079825925</v>
       </c>
       <c r="S2">
-        <v>0.03764058140071441</v>
+        <v>0.02973958923673114</v>
       </c>
       <c r="T2">
-        <v>0.03764058140071441</v>
+        <v>0.02973958923673114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H3">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I3">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J3">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>1890.771945754135</v>
+        <v>1615.9828535165</v>
       </c>
       <c r="R3">
-        <v>17016.94751178721</v>
+        <v>14543.8456816485</v>
       </c>
       <c r="S3">
-        <v>0.04138448261442481</v>
+        <v>0.03445441430017274</v>
       </c>
       <c r="T3">
-        <v>0.0413844826144248</v>
+        <v>0.03445441430017274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H4">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I4">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J4">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1048.021261195633</v>
+        <v>1226.599725932</v>
       </c>
       <c r="R4">
-        <v>9432.191350760693</v>
+        <v>11039.397533388</v>
       </c>
       <c r="S4">
-        <v>0.02293868266920968</v>
+        <v>0.02615236606364645</v>
       </c>
       <c r="T4">
-        <v>0.02293868266920967</v>
+        <v>0.02615236606364645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H5">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I5">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J5">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>762.6984591923579</v>
+        <v>629.555469671625</v>
       </c>
       <c r="R5">
-        <v>6864.28613273122</v>
+        <v>5665.999227044625</v>
       </c>
       <c r="S5">
-        <v>0.01669364790152176</v>
+        <v>0.01342276926379808</v>
       </c>
       <c r="T5">
-        <v>0.01669364790152176</v>
+        <v>0.01342276926379808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H6">
         <v>143.833961</v>
       </c>
       <c r="I6">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J6">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>7360.895563830329</v>
+        <v>6985.571742018766</v>
       </c>
       <c r="R6">
-        <v>66248.06007447296</v>
+        <v>62870.14567816889</v>
       </c>
       <c r="S6">
-        <v>0.161112425627001</v>
+        <v>0.1489395647975769</v>
       </c>
       <c r="T6">
-        <v>0.161112425627001</v>
+        <v>0.1489395647975769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H7">
         <v>143.833961</v>
       </c>
       <c r="I7">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J7">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
-        <v>8093.043283389643</v>
+        <v>8093.043283389646</v>
       </c>
       <c r="R7">
-        <v>72837.38955050679</v>
+        <v>72837.38955050681</v>
       </c>
       <c r="S7">
-        <v>0.1771373907949754</v>
+        <v>0.1725519956033927</v>
       </c>
       <c r="T7">
-        <v>0.1771373907949754</v>
+        <v>0.1725519956033927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H8">
         <v>143.833961</v>
       </c>
       <c r="I8">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J8">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>4485.829953112584</v>
+        <v>6142.964111135102</v>
       </c>
       <c r="R8">
-        <v>40372.46957801325</v>
+        <v>55286.67700021591</v>
       </c>
       <c r="S8">
-        <v>0.09818410523951884</v>
+        <v>0.1309743046193652</v>
       </c>
       <c r="T8">
-        <v>0.09818410523951886</v>
+        <v>0.1309743046193652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H9">
         <v>143.833961</v>
       </c>
       <c r="I9">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J9">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>3264.566970268019</v>
+        <v>3152.892157401307</v>
       </c>
       <c r="R9">
-        <v>29381.10273241217</v>
+        <v>28376.02941661176</v>
       </c>
       <c r="S9">
-        <v>0.07145357499515717</v>
+        <v>0.06722289930148746</v>
       </c>
       <c r="T9">
-        <v>0.07145357499515718</v>
+        <v>0.06722289930148746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H10">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>1482.225785543396</v>
+        <v>1649.34209444273</v>
       </c>
       <c r="R10">
-        <v>13340.03206989056</v>
+        <v>14844.07884998457</v>
       </c>
       <c r="S10">
-        <v>0.03244238280043175</v>
+        <v>0.03516566758179666</v>
       </c>
       <c r="T10">
-        <v>0.03244238280043175</v>
+        <v>0.03516566758179666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H11">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>1629.654616634284</v>
+        <v>1910.823831233611</v>
       </c>
       <c r="R11">
-        <v>14666.89154970856</v>
+        <v>17197.4144811025</v>
       </c>
       <c r="S11">
-        <v>0.03566924784401709</v>
+        <v>0.04074072679218186</v>
       </c>
       <c r="T11">
-        <v>0.03566924784401709</v>
+        <v>0.04074072679218186</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H12">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>903.2885697683371</v>
+        <v>1450.396569861593</v>
       </c>
       <c r="R12">
-        <v>8129.597127915034</v>
+        <v>13053.56912875434</v>
       </c>
       <c r="S12">
-        <v>0.01977082968431528</v>
+        <v>0.03092394465004174</v>
       </c>
       <c r="T12">
-        <v>0.01977082968431527</v>
+        <v>0.03092394465004174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H13">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>657.3691067893102</v>
+        <v>744.4197764315737</v>
       </c>
       <c r="R13">
-        <v>5916.321961103791</v>
+        <v>6699.777987884163</v>
       </c>
       <c r="S13">
-        <v>0.01438823991030367</v>
+        <v>0.01587179426724871</v>
       </c>
       <c r="T13">
-        <v>0.01438823991030367</v>
+        <v>0.01587179426724871</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H14">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>3930.319456146359</v>
+        <v>3412.075453453888</v>
       </c>
       <c r="R14">
-        <v>35372.87510531723</v>
+        <v>30708.679081085</v>
       </c>
       <c r="S14">
-        <v>0.08602530705370176</v>
+        <v>0.07274895339447961</v>
       </c>
       <c r="T14">
-        <v>0.08602530705370176</v>
+        <v>0.07274895339447961</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H15">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>4321.246674445294</v>
+        <v>3953.015637201581</v>
       </c>
       <c r="R15">
-        <v>38891.22007000765</v>
+        <v>35577.14073481423</v>
       </c>
       <c r="S15">
-        <v>0.09458177030434779</v>
+        <v>0.08428235374083685</v>
       </c>
       <c r="T15">
-        <v>0.09458177030434778</v>
+        <v>0.08428235374083685</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H16">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>2395.190176086146</v>
+        <v>3000.507020631492</v>
       </c>
       <c r="R16">
-        <v>21556.71158477532</v>
+        <v>27004.56318568342</v>
       </c>
       <c r="S16">
-        <v>0.05242499309505183</v>
+        <v>0.06397389166255704</v>
       </c>
       <c r="T16">
-        <v>0.05242499309505182</v>
+        <v>0.06397389166255704</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H17">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>1743.101904907413</v>
+        <v>1540.017959152379</v>
       </c>
       <c r="R17">
-        <v>15687.91714416671</v>
+        <v>13860.16163237142</v>
       </c>
       <c r="S17">
-        <v>0.03815233806530781</v>
+        <v>0.03283476472468697</v>
       </c>
       <c r="T17">
-        <v>0.03815233806530781</v>
+        <v>0.03283476472468697</v>
       </c>
     </row>
   </sheetData>
